--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$44</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,7 +265,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}subject-required:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}date-required:The date element is required and must be provided. {date.exists() and date.hasValue()}event-required:The event element is required and must be provided. {event.exists() and event.coding.exists()}grade-required:The CTC Grade extension is required and must be provided. {extension($UCUM).exists(valueInteger.hasValue())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ae-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}ae-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}ae-req-3:The event element is required and must be provided. {event.exists() and event.coding.exists()}ae-req-4:The CTC Grade extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-ctc-grade').exists()}ae-req-5:The outcome is required and must be provided. {outcome.exists() and outcome.coding.exists()}ae-req-6:If suspectedEntity is provided, then at least one instance must exist. {suspectEntity.exists() implies (suspectEntity.count() &gt; 0 and suspectEntity.instance.exists())}ae-req-7:If adverseEventMitigation extension is provided, then at least one instance must exist. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').exists() implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').count() &gt; 0}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -445,7 +448,7 @@
     <t>ctcGrade</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-ctc-grade|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-ctc-grade|0.2.0}
 </t>
   </si>
   <si>
@@ -469,7 +472,7 @@
     <t>adverseEventMitigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation|0.2.0}
 </t>
   </si>
   <si>
@@ -577,7 +580,7 @@
     <t>This element defines the specific type of event that occurred or that was prevented from occurring.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-ctc-adverse-events|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-ctc-adverse-events|0.2.0</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
@@ -590,7 +593,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -785,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.2.0)
 </t>
   </si>
   <si>
@@ -1021,6 +1024,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1361,7 +1379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1789,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2217,7 +2235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>162</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>176</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>181</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>189</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>193</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>198</v>
       </c>
@@ -3399,7 +3417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>199</v>
       </c>
@@ -3507,7 +3525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>202</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>204</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>206</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>210</v>
       </c>
@@ -3950,7 +3968,7 @@
         <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4037,7 +4055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>218</v>
       </c>
@@ -4143,7 +4161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>221</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>223</v>
       </c>
@@ -4355,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>227</v>
       </c>
@@ -4461,7 +4479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>233</v>
       </c>
@@ -4569,7 +4587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>237</v>
       </c>
@@ -4679,7 +4697,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>242</v>
       </c>
@@ -4785,7 +4803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>247</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>250</v>
       </c>
@@ -4997,7 +5015,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>251</v>
       </c>
@@ -5105,7 +5123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>252</v>
       </c>
@@ -5215,7 +5233,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>253</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>258</v>
       </c>
@@ -5427,7 +5445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>261</v>
       </c>
@@ -5533,7 +5551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>265</v>
       </c>
@@ -5639,7 +5657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>270</v>
       </c>
@@ -5745,7 +5763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>273</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>276</v>
       </c>
@@ -5958,6 +5976,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL44">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing an adverse event experienced by a cancer patient as a result of an antineoplastic treatment, structured according to the Common Terminology Criteria for Adverse Events (CTCAE). This resource is used to capture and standardize the documentation of adverse events occurring during cancer care, including the type of event, its CTCAE grade, and any mitigation actions taken.
-The profile constrains the base FHIR `AdverseEvent` resource to ensure consistent use of CTCAE codes and grades, and supports linkage to related treatments such as medications, radiotherapy, or surgical procedures documented in Onconova. The profile also provides extensions for recording mitigation strategies, supporting detailed tracking and management of adverse events in cancer patients.</t>
+    <t xml:space="preserve">A profile representing an adverse event experienced by a cancer patient as a result of an antineoplastic treatment, structured according to the Common Terminology Criteria for Adverse Events (CTCAE). This resource is used to capture and standardize the documentation of adverse events occurring during cancer care, including the type of event, its CTCAE grade, and any mitigation actions taken.
+The profile constrains the base FHIR `AdverseEvent` resource to ensure consistent use of CTCAE codes and grades, and supports linkage to related treatments such as medications, radiotherapy, or surgical procedures documented in Onconova. The profile also provides extensions for recording mitigation strategies, supporting detailed tracking and management of adverse events in cancer patients.
+**Conformance:**
+AdverseEvent resources representing an adverse event caused by a cancer therapy in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -448,7 +450,7 @@
     <t>ctcGrade</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-ctc-grade|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-ctc-grade}
 </t>
   </si>
   <si>
@@ -466,13 +468,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ctcae-grade:The CTCAE grade must be between 1 and 5, inclusive. {valueInteger() &gt;= 1 and valueInteger() &lt;= 5}</t>
   </si>
   <si>
-    <t>AdverseEvent.extension:adverseEventMitigation</t>
-  </si>
-  <si>
-    <t>adverseEventMitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation|0.2.0}
+    <t>AdverseEvent.extension:mitigation</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation}
 </t>
   </si>
   <si>
@@ -531,13 +533,7 @@
     <t>AdverseEvent.actuality</t>
   </si>
   <si>
-    <t>actual | potential</t>
-  </si>
-  <si>
-    <t>Whether the event actually happened, or just had the potential to. Note that this is independent of whether anyone was affected or harmed or how severely.</t>
-  </si>
-  <si>
-    <t>actual</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>required</t>
@@ -559,9 +555,6 @@
 </t>
   </si>
   <si>
-    <t>Not used in this profile</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -580,7 +573,7 @@
     <t>This element defines the specific type of event that occurred or that was prevented from occurring.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-ctc-adverse-events|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-ctc-adverse-events</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
@@ -593,7 +586,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -788,7 +781,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure)
 </t>
   </si>
   <si>
@@ -1226,7 +1219,7 @@
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.7109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.50390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1234,7 +1227,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="220.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="206.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1249,7 +1242,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.65234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.60546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2705,7 +2698,7 @@
         <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2717,28 +2710,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2771,7 +2764,7 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2779,10 +2772,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2805,13 +2798,13 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2838,13 +2831,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2862,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2877,7 +2870,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2885,10 +2878,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2911,13 +2904,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2944,11 +2937,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2966,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2981,7 +2974,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -2989,14 +2982,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3015,19 +3008,19 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3076,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
@@ -3091,7 +3084,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3099,10 +3092,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3125,16 +3118,16 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3184,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3199,7 +3192,7 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3207,10 +3200,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3233,13 +3226,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3290,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3305,7 +3298,7 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3313,10 +3306,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3339,13 +3332,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3396,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3419,10 +3412,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3445,16 +3438,16 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3504,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3519,7 +3512,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3527,10 +3520,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3553,13 +3546,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3610,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3633,10 +3626,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3659,13 +3652,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3716,7 +3709,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3739,10 +3732,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3765,13 +3758,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3798,13 +3791,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -3822,7 +3815,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3845,10 +3838,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3871,13 +3864,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3904,13 +3897,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -3928,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3951,10 +3944,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3977,13 +3970,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4010,13 +4003,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4034,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4057,10 +4050,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4083,13 +4076,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4140,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4155,7 +4148,7 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4163,10 +4156,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4189,13 +4182,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4246,7 +4239,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4269,10 +4262,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4295,13 +4288,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4352,7 +4345,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4375,10 +4368,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4401,13 +4394,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4458,7 +4451,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4476,15 +4469,15 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4510,10 +4503,10 @@
         <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>153</v>
@@ -4566,7 +4559,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4584,19 +4577,19 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4618,10 +4611,10 @@
         <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>153</v>
@@ -4676,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4699,14 +4692,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4725,13 +4718,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4782,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>84</v>
@@ -4805,10 +4798,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4831,13 +4824,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4888,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4911,10 +4904,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4937,13 +4930,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4994,7 +4987,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5012,15 +5005,15 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5046,10 +5039,10 @@
         <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>153</v>
@@ -5102,7 +5095,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5120,19 +5113,19 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5154,10 +5147,10 @@
         <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>153</v>
@@ -5212,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5235,10 +5228,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5261,13 +5254,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5294,13 +5287,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5318,7 +5311,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5341,10 +5334,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5367,13 +5360,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5424,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5447,10 +5440,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5473,13 +5466,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5530,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5553,10 +5546,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5579,13 +5572,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5612,13 +5605,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -5636,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5659,10 +5652,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5685,13 +5678,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5742,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5765,10 +5758,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5791,13 +5784,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5848,7 +5841,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5871,10 +5864,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5897,13 +5890,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5954,7 +5947,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ae-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}ae-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}ae-req-3:The event element is required and must be provided. {event.exists() and event.coding.exists()}ae-req-4:The CTC Grade extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-ctc-grade').exists()}ae-req-5:The outcome is required and must be provided. {outcome.exists() and outcome.coding.exists()}ae-req-6:If suspectedEntity is provided, then at least one instance must exist. {suspectEntity.exists() implies (suspectEntity.count() &gt; 0 and suspectEntity.instance.exists())}ae-req-7:If adverseEventMitigation extension is provided, then at least one instance must exist. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').exists() implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').count() &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ae-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}ae-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}ae-req-3:The event element is required and must be provided. {event.exists() and event.coding.exists()}ae-req-4:The CTC Grade extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-ctc-grade').exists()}ae-req-5:The outcome is required and must be provided. {outcome.exists() and outcome.coding.exists()}ae-req-6:If suspectedEntity is provided, then at least one instance must exist. {suspectEntity.exists() implies (suspectEntity.count() &gt; 0 and suspectEntity.instance.exists())}ae-req-7:If adverseEventMitigation extension is provided, then at least one instance must exist. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').exists() implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').count() &gt; 0}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -466,6 +466,22 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ctcae-grade:The CTCAE grade must be between 1 and 5, inclusive. {valueInteger() &gt;= 1 and valueInteger() &lt;= 5}</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:resolvedDate</t>
+  </si>
+  <si>
+    <t>resolvedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-resolved-date}
+</t>
+  </si>
+  <si>
+    <t>Date resolved</t>
+  </si>
+  <si>
+    <t>The date when the adverse event was resolved (if applicable).</t>
   </si>
   <si>
     <t>AdverseEvent.extension:mitigation</t>
@@ -1208,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1219,7 +1235,7 @@
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.7109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.37890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2228,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2249,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>20</v>
@@ -2336,7 +2352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2354,10 +2370,10 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
@@ -2435,25 +2451,27 @@
         <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2463,16 +2481,16 @@
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>151</v>
@@ -2480,12 +2498,8 @@
       <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2542,59 +2556,59 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2643,33 +2657,33 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2677,7 +2691,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -2686,22 +2700,26 @@
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -2725,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2749,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>84</v>
@@ -2764,7 +2782,7 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2772,10 +2790,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2783,28 +2801,28 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2831,14 +2849,14 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
@@ -2855,13 +2873,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2870,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2892,7 +2910,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2904,13 +2922,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2937,11 +2955,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2965,7 +2985,7 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2974,7 +2994,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -2989,11 +3009,11 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3008,20 +3028,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3045,13 +3061,11 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3072,7 +3086,7 @@
         <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>84</v>
@@ -3084,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3092,18 +3106,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3118,18 +3132,20 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3177,10 +3193,10 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3192,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3200,10 +3216,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3226,15 +3242,17 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3283,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3304,7 +3322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>195</v>
       </c>
@@ -3317,13 +3335,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
@@ -3332,13 +3350,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3404,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3412,10 +3430,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3438,17 +3456,15 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3497,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3512,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3520,10 +3536,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3534,7 +3550,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3546,15 +3562,17 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3603,13 +3621,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3618,7 +3636,7 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3626,10 +3644,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3640,7 +3658,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3652,13 +3670,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3709,13 +3727,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3732,10 +3750,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3758,13 +3776,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3791,31 +3809,31 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3838,10 +3856,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3864,13 +3882,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3897,31 +3915,31 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3942,12 +3960,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3961,7 +3979,7 @@
         <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -3970,13 +3988,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4003,7 +4021,7 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Y26" t="s" s="2">
         <v>213</v>
@@ -4027,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4048,7 +4066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>215</v>
       </c>
@@ -4061,13 +4079,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4076,13 +4094,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4109,13 +4127,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4148,7 +4166,7 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4156,10 +4174,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4170,7 +4188,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4182,13 +4200,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4239,13 +4257,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4254,7 +4272,7 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4262,10 +4280,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4288,13 +4306,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4345,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4366,12 +4384,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4382,25 +4400,25 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4451,44 +4469,44 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4500,7 +4518,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>231</v>
@@ -4508,9 +4526,7 @@
       <c r="M31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4565,31 +4581,31 @@
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4602,10 +4618,10 @@
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>129</v>
@@ -4617,11 +4633,9 @@
         <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -4687,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -4703,31 +4717,35 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -4775,25 +4793,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -4805,14 +4823,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4824,13 +4842,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4884,10 +4902,10 @@
         <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -4904,10 +4922,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4918,7 +4936,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -4927,16 +4945,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4987,44 +5005,44 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5036,7 +5054,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>231</v>
@@ -5044,9 +5062,7 @@
       <c r="M36" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5101,31 +5117,31 @@
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5138,10 +5154,10 @@
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>129</v>
@@ -5153,11 +5169,9 @@
         <v>237</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5223,47 +5237,51 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -5287,13 +5305,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5311,25 +5329,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -5360,7 +5378,7 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>256</v>
@@ -5393,13 +5411,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5440,10 +5458,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5466,13 +5484,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5523,7 +5541,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5546,10 +5564,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5572,13 +5590,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5605,13 +5623,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -5629,7 +5647,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5666,7 +5684,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5678,10 +5696,10 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>269</v>
@@ -5711,13 +5729,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -5741,7 +5759,7 @@
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -5758,10 +5776,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5784,13 +5802,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5841,7 +5859,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5864,10 +5882,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5890,13 +5908,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5947,7 +5965,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -5968,8 +5986,114 @@
         <v>20</v>
       </c>
     </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL44">
+  <autoFilter ref="A1:AL45">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5979,7 +6103,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ae-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}ae-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}ae-req-3:The event element is required and must be provided. {event.exists() and event.coding.exists()}ae-req-4:The CTC Grade extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-ctc-grade').exists()}ae-req-5:The outcome is required and must be provided. {outcome.exists() and outcome.coding.exists()}ae-req-6:If suspectedEntity is provided, then at least one instance must exist. {suspectEntity.exists() implies (suspectEntity.count() &gt; 0 and suspectEntity.instance.exists())}ae-req-7:If adverseEventMitigation extension is provided, then at least one instance must exist. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').exists() implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').count() &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ae-req-1:The subject element is required and must be provided. {subject.exists()}ae-req-2:The date element is required and must be provided. {date.exists() and date.hasValue()}ae-req-3:The event element is required and must be provided. {event.exists() and event.coding.exists()}ae-req-4:The CTC Grade extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-ctc-grade').exists()}ae-req-5:The outcome is required and must be provided. {outcome.exists() and outcome.coding.exists()}ae-req-6:If suspectedEntity is provided, then at least one instance must exist. {suspectEntity.exists() implies (suspectEntity.count() &gt; 0 and suspectEntity.instance.exists())}ae-req-7:If adverseEventMitigation extension is provided, then at least one instance must exist. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').exists() implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adverse-event-mitigation').count() &gt; 0}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-adverse-event.xlsx
+++ b/StructureDefinition-onconova-adverse-event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
